--- a/output/test2/Book1.xlsx
+++ b/output/test2/Book1.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,6 +23,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>hidden_units</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,8 +369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46:E60"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1442,6 +1460,18 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1449,227 +1479,596 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>3.4488242312100001</v>
       </c>
       <c r="B1">
-        <v>3.4496030929249999</v>
+        <v>3.4495727794225002</v>
       </c>
       <c r="C1">
-        <v>3.4499959700025</v>
+        <v>3.4495404814424999</v>
       </c>
       <c r="D1">
-        <v>3.4597960750049999</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.4517022958900001</v>
+      </c>
+      <c r="G1">
+        <v>8</v>
+      </c>
+      <c r="H1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3.4490328888775004</v>
       </c>
       <c r="B2">
-        <v>3.4496943564225004</v>
+        <v>3.4496656137424999</v>
       </c>
       <c r="C2">
-        <v>3.4494414171150001</v>
+        <v>3.4499042217675</v>
       </c>
       <c r="D2">
-        <v>3.4631277307574999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.4556749495674999</v>
+      </c>
+      <c r="H2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3.4495268831675001</v>
       </c>
       <c r="B3">
-        <v>3.4500534622550001</v>
+        <v>3.4499933193575001</v>
       </c>
       <c r="C3">
-        <v>3.4500545580774995</v>
+        <v>3.450192413935</v>
       </c>
       <c r="D3">
-        <v>3.4440291284275002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.4598943406774998</v>
+      </c>
+      <c r="H3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3.449229414955</v>
       </c>
       <c r="B4">
-        <v>3.4496244671824998</v>
+        <v>3.4496030929249999</v>
       </c>
       <c r="C4">
-        <v>3.4500361325425</v>
+        <v>3.4496226786950004</v>
       </c>
       <c r="D4">
-        <v>3.7402948955725002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.4582520073725003</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3.4493941363375002</v>
       </c>
       <c r="B5">
-        <v>3.4497122048475002</v>
+        <v>3.4496943564225004</v>
       </c>
       <c r="C5">
-        <v>3.4507397152049997</v>
+        <v>3.4506166312649995</v>
       </c>
       <c r="D5">
-        <v>3.7912276670200002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.4573390986849999</v>
+      </c>
+      <c r="H5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3.449777041265</v>
       </c>
       <c r="B6">
-        <v>3.4500245074824996</v>
+        <v>3.4500534622550001</v>
       </c>
       <c r="C6">
-        <v>3.4506912636924998</v>
+        <v>3.4507796280475</v>
       </c>
       <c r="D6">
-        <v>3.7846085828775</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.4554874231524995</v>
+      </c>
+      <c r="H6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3.4494234120349998</v>
       </c>
       <c r="B7">
-        <v>3.4496063226549998</v>
+        <v>3.4496244671824998</v>
       </c>
       <c r="C7">
-        <v>3.4517022958900001</v>
+        <v>3.4499959700025</v>
       </c>
       <c r="D7">
-        <v>4.1329770876950001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.4655931264075002</v>
+      </c>
+      <c r="G7">
+        <v>16</v>
+      </c>
+      <c r="H7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3.4495432264049999</v>
       </c>
       <c r="B8">
-        <v>3.4497092126950002</v>
+        <v>3.4497122048475002</v>
       </c>
       <c r="C8">
-        <v>3.4556749495674999</v>
+        <v>3.4494414171150001</v>
       </c>
       <c r="D8">
-        <v>4.1612447000100001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.4533418404550003</v>
+      </c>
+      <c r="H8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3.4498952250774999</v>
       </c>
       <c r="B9">
-        <v>3.45011989685</v>
+        <v>3.4500245074824996</v>
       </c>
       <c r="C9">
-        <v>3.4598943406774998</v>
+        <v>3.4500545580774995</v>
       </c>
       <c r="D9">
-        <v>3.7961426443624999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.4497268355849999</v>
+      </c>
+      <c r="H9">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3.4495244783799999</v>
       </c>
       <c r="B10">
-        <v>3.4495404814424999</v>
+        <v>3.4496063226549998</v>
       </c>
       <c r="C10">
-        <v>3.4582520073725003</v>
+        <v>3.4500361325425</v>
       </c>
       <c r="D10">
-        <v>4.9807684907700001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.4597960750049999</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3.4496181351174999</v>
       </c>
       <c r="B11">
-        <v>3.4499042217675</v>
+        <v>3.4497092126950002</v>
       </c>
       <c r="C11">
-        <v>3.4573390986849999</v>
+        <v>3.4507397152049997</v>
       </c>
       <c r="D11">
-        <v>3.9811357291599996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.4631277307574999</v>
+      </c>
+      <c r="H11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3.4499636843474999</v>
       </c>
       <c r="B12">
+        <v>3.45011989685</v>
+      </c>
+      <c r="C12">
+        <v>3.4506912636924998</v>
+      </c>
+      <c r="D12">
+        <v>3.4440291284275002</v>
+      </c>
+      <c r="H12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>6.2500000000000001E-4</v>
+      </c>
+      <c r="B14">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C14">
+        <v>0.01</v>
+      </c>
+      <c r="D14">
+        <v>0.04</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="B17">
+        <v>3.4488242312100001</v>
+      </c>
+      <c r="C17">
+        <v>3.449229414955</v>
+      </c>
+      <c r="D17">
+        <v>3.4494234120349998</v>
+      </c>
+      <c r="E17">
+        <v>3.4495244783799999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.1</v>
+      </c>
+      <c r="B18">
+        <v>3.4490328888775004</v>
+      </c>
+      <c r="C18">
+        <v>3.4493941363375002</v>
+      </c>
+      <c r="D18">
+        <v>3.4495432264049999</v>
+      </c>
+      <c r="E18">
+        <v>3.4496181351174999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.4</v>
+      </c>
+      <c r="B19">
+        <v>3.4495268831675001</v>
+      </c>
+      <c r="C19">
+        <v>3.449777041265</v>
+      </c>
+      <c r="D19">
+        <v>3.4498952250774999</v>
+      </c>
+      <c r="E19">
+        <v>3.4499636843474999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="B22">
+        <v>3.4495727794225002</v>
+      </c>
+      <c r="C22">
+        <v>3.4496030929249999</v>
+      </c>
+      <c r="D22">
+        <v>3.4496244671824998</v>
+      </c>
+      <c r="E22">
+        <v>3.4496063226549998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.1</v>
+      </c>
+      <c r="B23">
+        <v>3.4496656137424999</v>
+      </c>
+      <c r="C23">
+        <v>3.4496943564225004</v>
+      </c>
+      <c r="D23">
+        <v>3.4497122048475002</v>
+      </c>
+      <c r="E23">
+        <v>3.4497092126950002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.4</v>
+      </c>
+      <c r="B24">
+        <v>3.4499933193575001</v>
+      </c>
+      <c r="C24">
+        <v>3.4500534622550001</v>
+      </c>
+      <c r="D24">
+        <v>3.4500245074824996</v>
+      </c>
+      <c r="E24">
+        <v>3.45011989685</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>12</v>
+      </c>
+      <c r="D26">
+        <v>16</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="B27">
+        <v>3.4495404814424999</v>
+      </c>
+      <c r="C27">
+        <v>3.4496226786950004</v>
+      </c>
+      <c r="D27">
+        <v>3.4499959700025</v>
+      </c>
+      <c r="E27">
+        <v>3.4500361325425</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.1</v>
+      </c>
+      <c r="B28">
+        <v>3.4499042217675</v>
+      </c>
+      <c r="C28">
+        <v>3.4506166312649995</v>
+      </c>
+      <c r="D28">
+        <v>3.4494414171150001</v>
+      </c>
+      <c r="E28">
+        <v>3.4507397152049997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.4</v>
+      </c>
+      <c r="B29">
         <v>3.450192413935</v>
       </c>
-      <c r="C12">
+      <c r="C29">
+        <v>3.4507796280475</v>
+      </c>
+      <c r="D29">
+        <v>3.4500545580774995</v>
+      </c>
+      <c r="E29">
+        <v>3.4506912636924998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>16</v>
+      </c>
+      <c r="E31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="B32">
+        <v>3.4517022958900001</v>
+      </c>
+      <c r="C32">
+        <v>3.4582520073725003</v>
+      </c>
+      <c r="D32">
+        <v>3.4655931264075002</v>
+      </c>
+      <c r="E32">
+        <v>3.4597960750049999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.1</v>
+      </c>
+      <c r="B33">
+        <v>3.4556749495674999</v>
+      </c>
+      <c r="C33">
+        <v>3.4573390986849999</v>
+      </c>
+      <c r="D33">
+        <v>3.4533418404550003</v>
+      </c>
+      <c r="E33">
+        <v>3.4631277307574999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.4</v>
+      </c>
+      <c r="B34">
+        <v>3.4598943406774998</v>
+      </c>
+      <c r="C34">
         <v>3.4554874231524995</v>
       </c>
-      <c r="D12">
-        <v>4.3232891518850005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>3.4495727794225002</v>
-      </c>
-      <c r="B13">
-        <v>3.4496226786950004</v>
-      </c>
-      <c r="C13">
-        <v>3.4655931264075002</v>
-      </c>
-      <c r="D13">
-        <v>4.3876072656250003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>3.4496656137424999</v>
-      </c>
-      <c r="B14">
-        <v>3.4506166312649995</v>
-      </c>
-      <c r="C14">
-        <v>3.4533418404550003</v>
-      </c>
-      <c r="D14">
-        <v>4.3844947697674996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>3.4499933193575001</v>
-      </c>
-      <c r="B15">
-        <v>3.4507796280475</v>
-      </c>
-      <c r="C15">
+      <c r="D34">
         <v>3.4497268355849999</v>
       </c>
-      <c r="D15">
-        <v>3.7899048335824999</v>
+      <c r="E34">
+        <v>3.4440291284275002</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:D15">
+  <conditionalFormatting sqref="A1:E12">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:E19">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:E24">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:E29">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:E34">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:C15">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
